--- a/Lib_Repo_Excel/FileExcel_DPLK/DPLKLib_Report.xlsx
+++ b/Lib_Repo_Excel/FileExcel_DPLK/DPLKLib_Report.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1442\Desktop\DPLK 2\Lib_Repo_Excel\FileExcel_DPLK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{830B7AB4-3789-4AD0-B6FC-D36E743A4F61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8525DAE8-C1CC-405C-81F9-598FB9A2EBC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -142,9 +142,6 @@
     <t>107.0.5304.107 (Official Build) (64-bit)</t>
   </si>
   <si>
-    <t>http://192.168.168.111/</t>
-  </si>
-  <si>
     <t>DPLK - Regression Test</t>
   </si>
   <si>
@@ -152,6 +149,9 @@
   </si>
   <si>
     <t>2021 R1</t>
+  </si>
+  <si>
+    <t>http://192.168.168.107/</t>
   </si>
 </sst>
 </file>
@@ -208,15 +208,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
@@ -530,7 +527,7 @@
   <dimension ref="A1:Z2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -643,7 +640,7 @@
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>24</v>
@@ -651,10 +648,10 @@
       <c r="C2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E2" s="3" t="s">
+      <c r="D2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F2" s="2" t="s">
@@ -667,13 +664,13 @@
         <v>21</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>16</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>19</v>

--- a/Lib_Repo_Excel/FileExcel_DPLK/DPLKLib_Report.xlsx
+++ b/Lib_Repo_Excel/FileExcel_DPLK/DPLKLib_Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1442\Desktop\DPLK 2\Lib_Repo_Excel\FileExcel_DPLK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8525DAE8-C1CC-405C-81F9-598FB9A2EBC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECD3158B-2C9E-499D-955B-B3DE5D0C7F17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -151,7 +151,7 @@
     <t>2021 R1</t>
   </si>
   <si>
-    <t>http://192.168.168.107/</t>
+    <t>http://192.168.168.111/</t>
   </si>
 </sst>
 </file>
@@ -527,7 +527,7 @@
   <dimension ref="A1:Z2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Lib_Repo_Excel/FileExcel_DPLK/DPLKLib_Report.xlsx
+++ b/Lib_Repo_Excel/FileExcel_DPLK/DPLKLib_Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1442\Desktop\DPLK 2\Lib_Repo_Excel\FileExcel_DPLK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECD3158B-2C9E-499D-955B-B3DE5D0C7F17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4809F486-F874-41C4-BB0C-7B5DCFF6B977}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -151,7 +151,7 @@
     <t>2021 R1</t>
   </si>
   <si>
-    <t>http://192.168.168.111/</t>
+    <t>http://192.168.168.107/</t>
   </si>
 </sst>
 </file>
@@ -527,7 +527,7 @@
   <dimension ref="A1:Z2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
